--- a/RolXChat/rolx_example.xlsx
+++ b/RolXChat/rolx_example.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O765"/>
+  <dimension ref="A1:O767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49077,30 +49077,30 @@
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>45384</v>
+        <v>45354</v>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Sibille</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>Hablützel</t>
+          <t>Blaser</t>
         </is>
       </c>
       <c r="D763" t="n">
         <v>8900</v>
       </c>
       <c r="E763" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F763" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>#8900.001</t>
+          <t>#8900.010</t>
         </is>
       </c>
       <c r="H763" t="inlineStr">
@@ -49115,53 +49115,57 @@
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>Bezahlte Abwesenheiten</t>
+          <t>Allgemeines</t>
         </is>
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Ferien</t>
+          <t>M&amp;F-Info</t>
         </is>
       </c>
       <c r="L763" t="n">
-        <v>8.416700000000001</v>
+        <v>0.5</v>
       </c>
       <c r="M763" t="inlineStr">
         <is>
-          <t>Abwesenheit</t>
+          <t>Nicht verrechenbar</t>
         </is>
       </c>
       <c r="N763" t="b">
         <v>0</v>
       </c>
-      <c r="O763" t="inlineStr"/>
+      <c r="O763" t="inlineStr">
+        <is>
+          <t>Update Slides</t>
+        </is>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>45385</v>
+        <v>45354</v>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Sibille</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>Hablützel</t>
+          <t>Blaser</t>
         </is>
       </c>
       <c r="D764" t="n">
-        <v>8900</v>
+        <v>8831</v>
       </c>
       <c r="E764" t="n">
         <v>1</v>
       </c>
       <c r="F764" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G764" t="inlineStr">
         <is>
-          <t>#8900.001</t>
+          <t>#8831.001</t>
         </is>
       </c>
       <c r="H764" t="inlineStr">
@@ -49171,35 +49175,39 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Allgemein</t>
+          <t>GL/BU Allgemeines</t>
         </is>
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>Bezahlte Abwesenheiten</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Ferien</t>
+          <t>Meetings</t>
         </is>
       </c>
       <c r="L764" t="n">
-        <v>8.416700000000001</v>
+        <v>0.3333</v>
       </c>
       <c r="M764" t="inlineStr">
         <is>
-          <t>Abwesenheit</t>
+          <t>Nicht verrechenbar</t>
         </is>
       </c>
       <c r="N764" t="b">
         <v>0</v>
       </c>
-      <c r="O764" t="inlineStr"/>
+      <c r="O764" t="inlineStr">
+        <is>
+          <t>BU Weekly</t>
+        </is>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>45609</v>
+        <v>45384</v>
       </c>
       <c r="B765" t="inlineStr">
         <is>
@@ -49257,6 +49265,128 @@
         <v>0</v>
       </c>
       <c r="O765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Sibille</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>Hablützel</t>
+        </is>
+      </c>
+      <c r="D766" t="n">
+        <v>8900</v>
+      </c>
+      <c r="E766" t="n">
+        <v>1</v>
+      </c>
+      <c r="F766" t="n">
+        <v>1</v>
+      </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>#8900.001</t>
+        </is>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>M&amp;F</t>
+        </is>
+      </c>
+      <c r="I766" t="inlineStr">
+        <is>
+          <t>Allgemein</t>
+        </is>
+      </c>
+      <c r="J766" t="inlineStr">
+        <is>
+          <t>Bezahlte Abwesenheiten</t>
+        </is>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>Ferien</t>
+        </is>
+      </c>
+      <c r="L766" t="n">
+        <v>8.416700000000001</v>
+      </c>
+      <c r="M766" t="inlineStr">
+        <is>
+          <t>Abwesenheit</t>
+        </is>
+      </c>
+      <c r="N766" t="b">
+        <v>0</v>
+      </c>
+      <c r="O766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Sibille</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>Hablützel</t>
+        </is>
+      </c>
+      <c r="D767" t="n">
+        <v>8900</v>
+      </c>
+      <c r="E767" t="n">
+        <v>1</v>
+      </c>
+      <c r="F767" t="n">
+        <v>1</v>
+      </c>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>#8900.001</t>
+        </is>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>M&amp;F</t>
+        </is>
+      </c>
+      <c r="I767" t="inlineStr">
+        <is>
+          <t>Allgemein</t>
+        </is>
+      </c>
+      <c r="J767" t="inlineStr">
+        <is>
+          <t>Bezahlte Abwesenheiten</t>
+        </is>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>Ferien</t>
+        </is>
+      </c>
+      <c r="L767" t="n">
+        <v>8.416700000000001</v>
+      </c>
+      <c r="M767" t="inlineStr">
+        <is>
+          <t>Abwesenheit</t>
+        </is>
+      </c>
+      <c r="N767" t="b">
+        <v>0</v>
+      </c>
+      <c r="O767" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
